--- a/medicine/Mort/Damien_Le_Guay/Damien_Le_Guay.xlsx
+++ b/medicine/Mort/Damien_Le_Guay/Damien_Le_Guay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Damien Le Guay, né le 13 juin 1961[1], est un philosophe et un critique littéraire français. Il a écrit plusieurs ouvrages sur la mort[2],[3].
-Il est maître de conférences à HEC Paris[4] et à l'Institut des relations publiques et de la communication (IRCOM)[4] aux Ponts-de-Cé. Il enseigne à l'Espace éthique de l'Assistance publique - Hôpitaux de Paris[5] et est président du Comité national d'éthique du funéraire[4],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Damien Le Guay, né le 13 juin 1961, est un philosophe et un critique littéraire français. Il a écrit plusieurs ouvrages sur la mort,.
+Il est maître de conférences à HEC Paris et à l'Institut des relations publiques et de la communication (IRCOM) aux Ponts-de-Cé. Il enseigne à l'Espace éthique de l'Assistance publique - Hôpitaux de Paris et est président du Comité national d'éthique du funéraire.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>41 exercices d´hygiène spirituelle : Sortir des impasses du développement personnel, Salvator, 2020
 La Guerre civile qui vient est déjà là, Éditions du Cerf, coll. « Actualités », 2017, 224 p.
